--- a/data/dynamic/input_param.xlsx
+++ b/data/dynamic/input_param.xlsx
@@ -485,7 +485,7 @@
         <v>2.7</v>
       </c>
       <c r="B2" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C2" t="n">
         <v>6.1</v>
@@ -494,19 +494,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1e+21</v>
+        <v>1e+20</v>
       </c>
       <c r="G2" t="n">
         <v>0.3</v>
       </c>
       <c r="H2" t="n">
-        <v>1000000000</v>
+        <v>100000000000</v>
       </c>
       <c r="I2" t="n">
-        <v>1684.96151620178</v>
+        <v>1596.827189893608</v>
       </c>
     </row>
   </sheetData>
